--- a/relookedData.xlsx
+++ b/relookedData.xlsx
@@ -2545,7 +2545,7 @@
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '1', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5'}]</t>
   </si>
   <si>
-    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '37', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '35', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '35', 'current_iteration': '1', 'mrfmcs': '35', 'registermcs': '35'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '14', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '2', 'mrfmcs': '14', 'registermcs': '14'}]</t>
+    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '37', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '35', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '35', 'current_iteration': '1', 'mrfmcs': '35', 'registermcs': '35'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '14', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '14', 'current_iteration': '2', 'mrfmcs': '14', 'registermcs': '14'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '4', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '0', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '1', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5'}]</t>
@@ -6343,10 +6343,10 @@
         <v>499</v>
       </c>
       <c r="UD17" t="s">
-        <v>849</v>
+        <v>500</v>
       </c>
       <c r="UF17" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="UG17" t="s">
         <v>837</v>
